--- a/GIT_COMMANDS.xlsx
+++ b/GIT_COMMANDS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="27795" windowHeight="13110"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -214,9 +214,6 @@
     <t>merge changes made while in sub-branch to its root branch</t>
   </si>
   <si>
-    <t>git clone</t>
-  </si>
-  <si>
     <t>download files from remote watcher to local file</t>
   </si>
   <si>
@@ -242,6 +239,9 @@
   </si>
   <si>
     <t>CREATE WATCHER/INDEX IN BASHED FOLDER</t>
+  </si>
+  <si>
+    <t>git clone https://watcherName.git</t>
   </si>
 </sst>
 </file>
@@ -624,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,7 +672,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1"/>
     </row>
@@ -694,7 +694,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1"/>
     </row>
@@ -708,7 +708,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1"/>
     </row>
@@ -738,7 +738,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="1"/>
     </row>
@@ -752,7 +752,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1"/>
     </row>
@@ -782,7 +782,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -803,7 +803,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="1"/>
     </row>
@@ -833,7 +833,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="1"/>
     </row>
@@ -871,10 +871,10 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s">
         <v>46</v>
-      </c>
-      <c r="B33" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
